--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="49">
   <si>
     <t>Longest Option</t>
   </si>
@@ -107,6 +107,75 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>ঢাকা বিশ্ববিদ্যালয়
+বিশ্ববিদ্যালয়, ঢাকা, বাংলাদেশ</t>
+  </si>
+  <si>
+    <t>dhaka 888</t>
+  </si>
+  <si>
+    <t>saturday surya movie
+Saripodhaa Sanivaaram — ২০২৪ সালের চলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>saturday</t>
+  </si>
+  <si>
+    <t>Baby's Day Out
+বেবি'স ডে আউট — ১৯৯৪ সালের চলচ্চিত্র</t>
+  </si>
+  <si>
+    <t>baby pic</t>
+  </si>
+  <si>
+    <t>School Friends
+স্কুল ফ্রেন্ডস — টিভি প্রোগ্রাম</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>Cricket World Cup
+আইসিসি ক্রিকেট বিশ্ব কাপ — ক্রিকেট লীগ</t>
+  </si>
+  <si>
+    <t>crickex</t>
+  </si>
+  <si>
+    <t>moneygram
+মানিগ্রাম ইন্টারন্যাশনাল ইনকর্পোরেটেড</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>ইন্টার মায়ামি সিএফ
+ফুটবল টীম</t>
+  </si>
+  <si>
+    <t>ইন্টারনেট</t>
+  </si>
+  <si>
+    <t>Look Back
+তাতসুকি ফুজিমোতো এর পুস্তক</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>Hello Hello! (Noodle &amp; Pals) [Sing-Along]
+গান</t>
+  </si>
+  <si>
+    <t>hello guys</t>
+  </si>
+  <si>
+    <t>ব্যাডমিন্টন কোর্টের মাপ</t>
+  </si>
+  <si>
+    <t>ব্যাংক</t>
   </si>
 </sst>
 </file>
@@ -426,6 +495,12 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
@@ -434,6 +509,12 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
@@ -442,6 +523,12 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
@@ -450,6 +537,12 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
@@ -458,6 +551,12 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
@@ -466,6 +565,12 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
@@ -474,6 +579,12 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>42</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
@@ -482,6 +593,12 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D10" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>44</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
@@ -490,6 +607,12 @@
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D11" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>46</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
@@ -497,6 +620,12 @@
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
